--- a/output/part3/6. out_of_sample_ew_sheet.xlsx
+++ b/output/part3/6. out_of_sample_ew_sheet.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01559620475724535</v>
+        <v>-0.01559620475724535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03597397773343049</v>
+        <v>-0.03597397773343049</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06044381507571294</v>
+        <v>-0.06044381507571294</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07998709946488569</v>
+        <v>-0.07998709946488569</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.194817904652787</v>
+        <v>-3.194817904652787</v>
       </c>
       <c r="C3" t="n">
-        <v>5.107229643009237</v>
+        <v>-5.107229643009237</v>
       </c>
       <c r="D3" t="n">
-        <v>6.050016873259103</v>
+        <v>-6.050016873259103</v>
       </c>
       <c r="E3" t="n">
-        <v>6.519232570988308</v>
+        <v>-6.519232570988308</v>
       </c>
     </row>
     <row r="4">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02078107956221121</v>
+        <v>-0.02078107956221121</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04201116006528329</v>
+        <v>-0.04201116006528329</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06813119246836742</v>
+        <v>-0.06813119246836742</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07941180671614871</v>
+        <v>-0.07941180671614871</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.089178174569774</v>
+        <v>-4.089178174569774</v>
       </c>
       <c r="C9" t="n">
-        <v>5.771314625452629</v>
+        <v>-5.771314625452629</v>
       </c>
       <c r="D9" t="n">
-        <v>6.957015440107042</v>
+        <v>-6.957015440107042</v>
       </c>
       <c r="E9" t="n">
-        <v>6.933540078093594</v>
+        <v>-6.933540078093594</v>
       </c>
     </row>
     <row r="10">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02164811943424267</v>
+        <v>-0.02164811943424267</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04423863782594471</v>
+        <v>-0.04423863782594471</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06753925280742124</v>
+        <v>-0.06753925280742124</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0797191899347422</v>
+        <v>-0.0797191899347422</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.965398348230871</v>
+        <v>-3.965398348230871</v>
       </c>
       <c r="C15" t="n">
-        <v>5.80582729874501</v>
+        <v>-5.80582729874501</v>
       </c>
       <c r="D15" t="n">
-        <v>6.851721288903993</v>
+        <v>-6.851721288903993</v>
       </c>
       <c r="E15" t="n">
-        <v>6.547024729429175</v>
+        <v>-6.547024729429175</v>
       </c>
     </row>
     <row r="16">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02060272655688103</v>
+        <v>-0.02060272655688103</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04459029302923943</v>
+        <v>-0.04459029302923943</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06705031990265096</v>
+        <v>-0.06705031990265096</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08168300066309818</v>
+        <v>-0.08168300066309818</v>
       </c>
     </row>
     <row r="21">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.840686752380281</v>
+        <v>-3.840686752380281</v>
       </c>
       <c r="C21" t="n">
-        <v>5.824529699898745</v>
+        <v>-5.824529699898745</v>
       </c>
       <c r="D21" t="n">
-        <v>6.389158144916093</v>
+        <v>-6.389158144916093</v>
       </c>
       <c r="E21" t="n">
-        <v>6.322553432155525</v>
+        <v>-6.322553432155525</v>
       </c>
     </row>
     <row r="22">

--- a/output/part3/6. out_of_sample_ew_sheet.xlsx
+++ b/output/part3/6. out_of_sample_ew_sheet.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.01559620475724535</v>
+        <v>0.004754311418771289</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03597397773343049</v>
+        <v>0.005389076851612592</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06044381507571294</v>
+        <v>0.00585536679281113</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.07998709946488569</v>
+        <v>0.005670665460181294</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.194817904652787</v>
+        <v>2.95150647669481</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.107229643009237</v>
+        <v>4.754240764293362</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.050016873259103</v>
+        <v>5.585856170897704</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.519232570988308</v>
+        <v>5.992451452608591</v>
       </c>
     </row>
     <row r="4">
@@ -500,17 +500,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03430858970817857</v>
+        <v>-0.01243754993729038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05721399726602453</v>
+        <v>-0.0112630984422302</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09549517881259814</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1376345971539148</v>
-      </c>
+        <v>-0.01362021297418346</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -519,17 +517,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.569802364655052</v>
+        <v>-5.488083401140036</v>
       </c>
       <c r="C5" t="n">
-        <v>6.045282205437392</v>
+        <v>-5.696757530196266</v>
       </c>
       <c r="D5" t="n">
-        <v>7.359219184253518</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.427780839700241</v>
-      </c>
+        <v>-6.256129489798984</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -538,16 +534,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01871238495093321</v>
+        <v>0.005116256475096994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02124001953259405</v>
+        <v>0.001959664171740027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03505136373688521</v>
+        <v>0.001743640555890115</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05764749768902912</v>
+        <v>0.001913477689023771</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +553,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.395815792342954</v>
+        <v>2.005235405987511</v>
       </c>
       <c r="C7" t="n">
-        <v>1.748180143051785</v>
+        <v>1.002575273488103</v>
       </c>
       <c r="D7" t="n">
-        <v>2.061101553903093</v>
+        <v>0.9461598357465517</v>
       </c>
       <c r="E7" t="n">
-        <v>2.503557682485751</v>
+        <v>1.08110823842823</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +572,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02078107956221121</v>
+        <v>0.006451957805491795</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.04201116006528329</v>
+        <v>0.006356541366461522</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06813119246836742</v>
+        <v>0.006696391702962223</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07941180671614871</v>
+        <v>0.005730842260671652</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +591,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.089178174569774</v>
+        <v>3.858141706739029</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.771314625452629</v>
+        <v>5.400859541094776</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.957015440107042</v>
+        <v>6.478674860957485</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.933540078093594</v>
+        <v>6.379229698710517</v>
       </c>
     </row>
     <row r="10">
@@ -614,17 +610,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0282028932864581</v>
+        <v>-0.01036271929057376</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05523020145378667</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.09228691493638472</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1444353493455294</v>
-      </c>
+        <v>-0.0109826750875756</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -633,17 +625,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.599748081336501</v>
+        <v>-4.527308866029893</v>
       </c>
       <c r="C11" t="n">
-        <v>5.869671457445746</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.916120760899338</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.170964405605448</v>
-      </c>
+        <v>-5.376324566222857</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -652,16 +640,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.007421813724246891</v>
+        <v>0.001462100388132495</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01321904138850337</v>
+        <v>0.0006355493837071288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02415572246801732</v>
+        <v>0.0006178379737913425</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06502354262938073</v>
+        <v>0.002467234319116947</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +659,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.965221835432498</v>
+        <v>0.5789676885702968</v>
       </c>
       <c r="C13" t="n">
-        <v>1.072099446842836</v>
+        <v>0.3179093725469145</v>
       </c>
       <c r="D13" t="n">
-        <v>1.416574893969707</v>
+        <v>0.3403269381641657</v>
       </c>
       <c r="E13" t="n">
-        <v>2.674512843466844</v>
+        <v>1.389384295598894</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +678,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02164811943424267</v>
+        <v>0.006695666715188392</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04423863782594471</v>
+        <v>0.006681371175403872</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.06753925280742124</v>
+        <v>0.006641293356938142</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0797191899347422</v>
+        <v>0.00569243078486502</v>
       </c>
     </row>
     <row r="15">
@@ -709,16 +697,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.965398348230871</v>
+        <v>3.744964528610712</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.80582729874501</v>
+        <v>5.432774179440074</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.851721288903993</v>
+        <v>6.37000633007165</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.547024729429175</v>
+        <v>6.026796462879193</v>
       </c>
     </row>
     <row r="16">
@@ -728,17 +716,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02784715375610617</v>
+        <v>-0.01030321078678046</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05153494164505028</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.08845332493977061</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1411675382814824</v>
-      </c>
+        <v>-0.01047400383540542</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -747,17 +731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.389314787166636</v>
+        <v>-4.315604500821167</v>
       </c>
       <c r="C17" t="n">
-        <v>5.478650490415391</v>
-      </c>
-      <c r="D17" t="n">
-        <v>6.570811870802956</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.867250974381068</v>
-      </c>
+        <v>-4.837054944352429</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -766,16 +746,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0061990343218635</v>
+        <v>0.0008916621096052218</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007296303819105581</v>
+        <v>-0.0002745196274605644</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02091407213234938</v>
+        <v>0.0003834457850681817</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06144834834674017</v>
+        <v>0.002107137268187614</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +765,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7444392309192384</v>
+        <v>0.3252430865880111</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6021551250971972</v>
+        <v>-0.1406477203802823</v>
       </c>
       <c r="D19" t="n">
-        <v>1.244311485005663</v>
+        <v>0.2173789790247193</v>
       </c>
       <c r="E19" t="n">
-        <v>2.50802585989349</v>
+        <v>1.14675825605596</v>
       </c>
     </row>
     <row r="20">
@@ -804,16 +784,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02060272655688103</v>
+        <v>0.006366746531862169</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.04459029302923943</v>
+        <v>0.006750748498099018</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.06705031990265096</v>
+        <v>0.006539269801902266</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.08168300066309818</v>
+        <v>0.005772245651577344</v>
       </c>
     </row>
     <row r="21">
@@ -823,16 +803,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-3.840686752380281</v>
+        <v>3.617560667053156</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.824529699898745</v>
+        <v>5.44956356670746</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.389158144916093</v>
+        <v>5.984021443800612</v>
       </c>
       <c r="E21" t="n">
-        <v>-6.322553432155525</v>
+        <v>5.817743972605122</v>
       </c>
     </row>
     <row r="22">
@@ -842,17 +822,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02827680452788607</v>
+        <v>-0.0105329681839226</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05578330129181451</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.09435617516103172</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.140780670905908</v>
-      </c>
+        <v>-0.01171470416059327</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -861,17 +837,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.419401843773335</v>
+        <v>-4.226845728165167</v>
       </c>
       <c r="C23" t="n">
-        <v>5.658061018119321</v>
-      </c>
-      <c r="D23" t="n">
-        <v>6.795068746989733</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6.979200838491356</v>
-      </c>
+        <v>-4.569805526302098</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -880,16 +852,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.007674077971005037</v>
+        <v>0.00142587876152263</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01119300826257508</v>
+        <v>0.0003046138437965086</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02730585525838075</v>
+        <v>0.000639535431532716</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05909767024280985</v>
+        <v>0.001518637830056985</v>
       </c>
     </row>
     <row r="25">
@@ -899,16 +871,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9331142778616565</v>
+        <v>0.5319866226561412</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8913310219706567</v>
+        <v>0.151309745251501</v>
       </c>
       <c r="D25" t="n">
-        <v>1.492570216784914</v>
+        <v>0.3208162709328659</v>
       </c>
       <c r="E25" t="n">
-        <v>2.317175959683153</v>
+        <v>0.7651011408357508</v>
       </c>
     </row>
   </sheetData>

--- a/output/part3/6. out_of_sample_ew_sheet.xlsx
+++ b/output/part3/6. out_of_sample_ew_sheet.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004754311418771289</v>
+        <v>0.01068002311887565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005389076851612592</v>
+        <v>0.008480156111028611</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00585536679281113</v>
+        <v>0.009175445401755538</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005670665460181294</v>
+        <v>0.009419315002041663</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.95150647669481</v>
+        <v>5.523028350170109</v>
       </c>
       <c r="C3" t="n">
-        <v>4.754240764293362</v>
+        <v>5.949757187784542</v>
       </c>
       <c r="D3" t="n">
-        <v>5.585856170897704</v>
+        <v>7.409635965204234</v>
       </c>
       <c r="E3" t="n">
-        <v>5.992451452608591</v>
+        <v>7.923920638043707</v>
       </c>
     </row>
     <row r="4">
@@ -500,15 +500,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01243754993729038</v>
+        <v>-0.004754311418771289</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0112630984422302</v>
+        <v>-0.005389076851612592</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01362021297418346</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>-0.00585536679281113</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.005670665460181294</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -517,15 +519,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-5.488083401140036</v>
+        <v>-2.95150647669481</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.696757530196266</v>
+        <v>-4.754240764293362</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.256129489798984</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>-5.585856170897704</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-5.992451452608591</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -534,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005116256475096994</v>
+        <v>0.00117625630828122</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001959664171740027</v>
+        <v>0.0009029167040204621</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001743640555890115</v>
+        <v>0.001258063373843503</v>
       </c>
       <c r="E6" t="n">
         <v>0.001913477689023771</v>
@@ -553,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.005235405987511</v>
+        <v>1.854481496400236</v>
       </c>
       <c r="C7" t="n">
-        <v>1.002575273488103</v>
+        <v>0.9257860547129588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9461598357465517</v>
+        <v>0.9101392953611729</v>
       </c>
       <c r="E7" t="n">
         <v>1.08110823842823</v>
@@ -572,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006451957805491795</v>
+        <v>0.008705333759653674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006356541366461522</v>
+        <v>0.008192026803880783</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006696391702962223</v>
+        <v>0.008836394527485313</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005730842260671652</v>
+        <v>0.009776342004670801</v>
       </c>
     </row>
     <row r="9">
@@ -591,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.858141706739029</v>
+        <v>4.547025827400423</v>
       </c>
       <c r="C9" t="n">
-        <v>5.400859541094776</v>
+        <v>5.824689285748136</v>
       </c>
       <c r="D9" t="n">
-        <v>6.478674860957485</v>
+        <v>7.041076972100504</v>
       </c>
       <c r="E9" t="n">
-        <v>6.379229698710517</v>
+        <v>7.803803585805547</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +614,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01036271929057376</v>
+        <v>-0.006451957805491795</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0109826750875756</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+        <v>-0.006356541366461522</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.006696391702962223</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.005730842260671652</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -625,13 +633,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.527308866029893</v>
+        <v>-3.858141706739029</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.376324566222857</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+        <v>-5.400859541094776</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-6.478674860957485</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-6.379229698710517</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -640,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.001462100388132495</v>
+        <v>0.0002720136651238718</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006355493837071288</v>
+        <v>0.0002409150076297867</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0006178379737913425</v>
+        <v>0.0004160474054679415</v>
       </c>
       <c r="E12" t="n">
         <v>0.002467234319116947</v>
@@ -659,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5789676885702968</v>
+        <v>0.4322938521137515</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3179093725469145</v>
+        <v>0.2413693795401204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3403269381641657</v>
+        <v>0.3057493790834024</v>
       </c>
       <c r="E13" t="n">
         <v>1.389384295598894</v>
@@ -678,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006695666715188392</v>
+        <v>0.008557938219821676</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006681371175403872</v>
+        <v>0.00761211709070698</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006641293356938142</v>
+        <v>0.008439940881558992</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00569243078486502</v>
+        <v>0.009506509389972186</v>
       </c>
     </row>
     <row r="15">
@@ -697,16 +709,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.744964528610712</v>
+        <v>4.336635900314954</v>
       </c>
       <c r="C15" t="n">
-        <v>5.432774179440074</v>
+        <v>5.466529391994337</v>
       </c>
       <c r="D15" t="n">
-        <v>6.37000633007165</v>
+        <v>6.705800154687222</v>
       </c>
       <c r="E15" t="n">
-        <v>6.026796462879193</v>
+        <v>7.462273818520735</v>
       </c>
     </row>
     <row r="16">
@@ -716,13 +728,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01030321078678046</v>
+        <v>-0.006695666715188392</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.01047400383540542</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+        <v>-0.006681371175403872</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.006641293356938142</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.00569243078486502</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -731,13 +747,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.315604500821167</v>
+        <v>-3.744964528610712</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.837054944352429</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+        <v>-5.432774179440074</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-6.37000633007165</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-6.026796462879193</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -746,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0008916621096052218</v>
+        <v>0.0001140004600902067</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0002745196274605644</v>
+        <v>-0.0002100742774031683</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0003834457850681817</v>
+        <v>0.0002437057523812515</v>
       </c>
       <c r="E18" t="n">
         <v>0.002107137268187614</v>
@@ -765,13 +785,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3252430865880111</v>
+        <v>0.1666436678023185</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1406477203802823</v>
+        <v>-0.2157019619676573</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2173789790247193</v>
+        <v>0.184412967581387</v>
       </c>
       <c r="E19" t="n">
         <v>1.14675825605596</v>
@@ -784,16 +804,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.006366746531862169</v>
+        <v>0.008694176507028759</v>
       </c>
       <c r="C20" t="n">
-        <v>0.006750748498099018</v>
+        <v>0.008243191096786459</v>
       </c>
       <c r="D20" t="n">
-        <v>0.006539269801902266</v>
+        <v>0.009032967302944159</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005772245651577344</v>
+        <v>0.009611170856552198</v>
       </c>
     </row>
     <row r="21">
@@ -803,16 +823,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.617560667053156</v>
+        <v>4.42452692558305</v>
       </c>
       <c r="C21" t="n">
-        <v>5.44956356670746</v>
+        <v>5.739419124279273</v>
       </c>
       <c r="D21" t="n">
-        <v>5.984021443800612</v>
+        <v>7.100177912027119</v>
       </c>
       <c r="E21" t="n">
-        <v>5.817743972605122</v>
+        <v>8.003958951874534</v>
       </c>
     </row>
     <row r="22">
@@ -822,13 +842,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0105329681839226</v>
+        <v>-0.006366746531862169</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.01171470416059327</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+        <v>-0.006750748498099018</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.006539269801902266</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.005772245651577344</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -837,13 +861,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-4.226845728165167</v>
+        <v>-3.617560667053156</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.569805526302098</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+        <v>-5.44956356670746</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-5.984021443800612</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-5.817743972605122</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -852,13 +880,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00142587876152263</v>
+        <v>0.0002525253575056304</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0003046138437965086</v>
+        <v>7.639543261224925e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.000639535431532716</v>
+        <v>0.0004237641230775907</v>
       </c>
       <c r="E24" t="n">
         <v>0.001518637830056985</v>
@@ -871,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5319866226561412</v>
+        <v>0.3789261319459177</v>
       </c>
       <c r="C25" t="n">
-        <v>0.151309745251501</v>
+        <v>0.0760645673010225</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3208162709328659</v>
+        <v>0.2832520318358187</v>
       </c>
       <c r="E25" t="n">
         <v>0.7651011408357508</v>
